--- a/Log of all Blogs.xlsx
+++ b/Log of all Blogs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>S.No</t>
   </si>
@@ -24,44 +24,42 @@
     <t>Date of Post</t>
   </si>
   <si>
-    <t>Link of the Blog Post</t>
-  </si>
-  <si>
     <t>Learn Front-end development :- A Practile Guide to Become Front-end Developer</t>
   </si>
   <si>
-    <t xml:space="preserve">Master CSS :- Top CSS frameworks and resources </t>
-  </si>
-  <si>
     <t>Title of the Blog Post</t>
   </si>
   <si>
-    <t>programmingport/learn.com</t>
-  </si>
-  <si>
-    <t>programmingport/master.com</t>
-  </si>
-  <si>
-    <t>Java Concepts :- Basics of Java Part-01</t>
-  </si>
-  <si>
-    <t>programmingport/java-1</t>
-  </si>
-  <si>
-    <t>Java Concepts :- Basics of Java Part-02</t>
+    <t>Link of the Blog Post on Hashnode</t>
+  </si>
+  <si>
+    <t>https://programmingport.hashnode.dev/learn-front-end-development-a-practical-guide-to-become-front-end-developer</t>
+  </si>
+  <si>
+    <t>Link of the Blog Post on Dev.to</t>
+  </si>
+  <si>
+    <t>https://dev.to/rahulmishra05/learn-front-end-development-a-practical-guide-to-become-front-end-developer-1jfo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,16 +79,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -226,17 +228,17 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1800"/>
             <a:t>Link</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1800" baseline="0"/>
-            <a:t> of the website :- programmigport.com</a:t>
+            <a:t> of the website :- https://programmingport.hashnode.dev/    https://dev.to/rahulmishra05</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800"/>
         </a:p>
@@ -248,13 +250,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B10:E14" totalsRowShown="0">
-  <autoFilter ref="B10:E14"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B10:F11" totalsRowShown="0">
+  <autoFilter ref="B10:F11">
+    <filterColumn colId="4"/>
+  </autoFilter>
+  <tableColumns count="5">
     <tableColumn id="1" name="S.No"/>
     <tableColumn id="2" name="Title of the Blog Post"/>
     <tableColumn id="3" name="Date of Post" dataDxfId="0"/>
-    <tableColumn id="4" name="Link of the Blog Post"/>
+    <tableColumn id="4" name="Link of the Blog Post on Hashnode" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" name="Link of the Blog Post on Dev.to" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -545,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B10:E14"/>
+  <dimension ref="B10:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -556,81 +561,54 @@
     <col min="2" max="2" width="10.26953125" customWidth="1"/>
     <col min="3" max="3" width="69.81640625" customWidth="1"/>
     <col min="4" max="4" width="17.36328125" customWidth="1"/>
-    <col min="5" max="5" width="52.36328125" customWidth="1"/>
+    <col min="5" max="5" width="116" customWidth="1"/>
+    <col min="6" max="6" width="133.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:6">
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:6">
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>40940</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1">
-        <v>38048</v>
-      </c>
-      <c r="E12" t="s">
+        <v>44112</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="2">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3">
-        <v>12480</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="2">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1"/>
+    <hyperlink ref="F11" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <drawing r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Log of all Blogs.xlsx
+++ b/Log of all Blogs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>S.No</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>https://dev.to/rahulmishra05/learn-front-end-development-a-practical-guide-to-become-front-end-developer-1jfo</t>
+  </si>
+  <si>
+    <t>Master CSS :- Top CSS Frameworks and Resources</t>
+  </si>
+  <si>
+    <t>https://programmingport.hashnode.dev/master-css-top-css-frameworks-and-resources</t>
+  </si>
+  <si>
+    <t>https://dev.to/rahulmishra05/master-css-top-css-frameworks-and-resources-5gj9</t>
   </si>
 </sst>
 </file>
@@ -86,10 +95,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -250,8 +262,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B10:F11" totalsRowShown="0">
-  <autoFilter ref="B10:F11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B10:F12" totalsRowShown="0">
+  <autoFilter ref="B10:F12">
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="5">
@@ -550,9 +562,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B10:F11"/>
+  <dimension ref="B10:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -599,16 +611,35 @@
         <v>7</v>
       </c>
     </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4">
+        <v>44113</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E11" r:id="rId1"/>
     <hyperlink ref="F11" r:id="rId2"/>
+    <hyperlink ref="E12" r:id="rId3"/>
+    <hyperlink ref="F12" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <drawing r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Log of all Blogs.xlsx
+++ b/Log of all Blogs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>S.No</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>https://dev.to/rahulmishra05/master-css-top-css-frameworks-and-resources-5gj9</t>
+  </si>
+  <si>
+    <t>Java Concepts : Part - 01</t>
+  </si>
+  <si>
+    <t>https://programmingport.hashnode.dev/java-concepts-part-01</t>
+  </si>
+  <si>
+    <t>https://dev.to/rahulmishra05/java-concepts-part-01-1oab</t>
   </si>
 </sst>
 </file>
@@ -262,8 +271,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B10:F12" totalsRowShown="0">
-  <autoFilter ref="B10:F12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B10:F13" totalsRowShown="0">
+  <autoFilter ref="B10:F13">
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="5">
@@ -562,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B10:F12"/>
+  <dimension ref="B10:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -628,18 +637,37 @@
         <v>10</v>
       </c>
     </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44115</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E11" r:id="rId1"/>
     <hyperlink ref="F11" r:id="rId2"/>
     <hyperlink ref="E12" r:id="rId3"/>
     <hyperlink ref="F12" r:id="rId4"/>
+    <hyperlink ref="E13" r:id="rId5"/>
+    <hyperlink ref="F13" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <drawing r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Log of all Blogs.xlsx
+++ b/Log of all Blogs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>S.No</t>
   </si>
@@ -58,6 +58,24 @@
   </si>
   <si>
     <t>https://dev.to/rahulmishra05/java-concepts-part-01-1oab</t>
+  </si>
+  <si>
+    <t>Java Concepts : Part - 02</t>
+  </si>
+  <si>
+    <t>https://programmingport.hashnode.dev/java-concepts-part-03</t>
+  </si>
+  <si>
+    <t>https://programmingport.hashnode.dev/java-concepts-part-02</t>
+  </si>
+  <si>
+    <t>https://dev.to/rahulmishra05/java-concepts-part-02-2p8f</t>
+  </si>
+  <si>
+    <t>Java Concepts : Part - 03</t>
+  </si>
+  <si>
+    <t>https://dev.to/rahulmishra05/java-concepts-part-03-jpg</t>
   </si>
 </sst>
 </file>
@@ -271,8 +289,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B10:F13" totalsRowShown="0">
-  <autoFilter ref="B10:F13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B10:F15" totalsRowShown="0">
+  <autoFilter ref="B10:F15">
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="5">
@@ -571,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B10:F13"/>
+  <dimension ref="B10:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -654,6 +672,40 @@
         <v>13</v>
       </c>
     </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="3">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44115</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="4">
+        <v>44117</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E11" r:id="rId1"/>
@@ -662,12 +714,13 @@
     <hyperlink ref="F12" r:id="rId4"/>
     <hyperlink ref="E13" r:id="rId5"/>
     <hyperlink ref="F13" r:id="rId6"/>
+    <hyperlink ref="E14" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
-  <drawing r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <drawing r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Log of all Blogs.xlsx
+++ b/Log of all Blogs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>S.No</t>
   </si>
@@ -76,6 +76,33 @@
   </si>
   <si>
     <t>https://dev.to/rahulmishra05/java-concepts-part-03-jpg</t>
+  </si>
+  <si>
+    <t>Java Concepts : Part - 04</t>
+  </si>
+  <si>
+    <t>https://programmingport.hashnode.dev/java-concepts-part-04</t>
+  </si>
+  <si>
+    <t>https://dev.to/rahulmishra05/java-concepts-part-04-o4n</t>
+  </si>
+  <si>
+    <t>What is Database System ? | DBMS - M01 P01</t>
+  </si>
+  <si>
+    <t>https://programmingport.hashnode.dev/what-is-database-system-or-dbms-m01-p01</t>
+  </si>
+  <si>
+    <t>https://dev.to/rahulmishra05/what-is-database-system-dbms-m01-p01-3a2j</t>
+  </si>
+  <si>
+    <t>Operating System and its functionality | Operating System - M01 P01</t>
+  </si>
+  <si>
+    <t>https://programmingport.hashnode.dev/operating-system-and-its-functionality-or-operating-system-m01-p01</t>
+  </si>
+  <si>
+    <t>https://dev.to/rahulmishra05/operating-system-and-its-functionality-operating-system-m01-p01-4ifa</t>
   </si>
 </sst>
 </file>
@@ -289,8 +316,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B10:F15" totalsRowShown="0">
-  <autoFilter ref="B10:F15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B10:F18" totalsRowShown="0">
+  <autoFilter ref="B10:F18">
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="5">
@@ -589,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B10:F15"/>
+  <dimension ref="B10:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -704,6 +731,57 @@
       </c>
       <c r="F15" s="5" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="3">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="4">
+        <v>44119</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="3">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4">
+        <v>44123</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="3">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="4">
+        <v>44124</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Log of all Blogs.xlsx
+++ b/Log of all Blogs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>S.No</t>
   </si>
@@ -103,6 +103,24 @@
   </si>
   <si>
     <t>https://dev.to/rahulmishra05/operating-system-and-its-functionality-operating-system-m01-p01-4ifa</t>
+  </si>
+  <si>
+    <t>Batch Operating System | Operating System - M01 P02</t>
+  </si>
+  <si>
+    <t>https://programmingport.hashnode.dev/batch-operating-system-or-operating-system-m01-p02</t>
+  </si>
+  <si>
+    <t>https://dev.to/rahulmishra05/batch-operating-system-operating-system-m01-p02-54d9</t>
+  </si>
+  <si>
+    <t>Multiprogrammed and Multitasking Operating System | Operating System - M01 P03</t>
+  </si>
+  <si>
+    <t>https://programmingport.hashnode.dev/multiprogrammed-and-multitasking-operating-system-or-operating-system-m01-p03</t>
+  </si>
+  <si>
+    <t>https://dev.to/rahulmishra05/multiprogrammed-and-multitasking-operating-system-operating-system-m01-p03-37d1</t>
   </si>
 </sst>
 </file>
@@ -316,8 +334,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B10:F18" totalsRowShown="0">
-  <autoFilter ref="B10:F18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B10:F20" totalsRowShown="0">
+  <autoFilter ref="B10:F20">
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="5">
@@ -616,16 +634,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B10:F18"/>
+  <dimension ref="B10:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="10.26953125" customWidth="1"/>
-    <col min="3" max="3" width="69.81640625" customWidth="1"/>
+    <col min="3" max="3" width="73.7265625" customWidth="1"/>
     <col min="4" max="4" width="17.36328125" customWidth="1"/>
     <col min="5" max="5" width="116" customWidth="1"/>
     <col min="6" max="6" width="133.6328125" customWidth="1"/>
@@ -782,6 +800,40 @@
       </c>
       <c r="F18" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="3">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="4">
+        <v>44126</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="3">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="4">
+        <v>44140</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Log of all Blogs.xlsx
+++ b/Log of all Blogs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>S.No</t>
   </si>
@@ -121,6 +121,33 @@
   </si>
   <si>
     <t>https://dev.to/rahulmishra05/multiprogrammed-and-multitasking-operating-system-operating-system-m01-p03-37d1</t>
+  </si>
+  <si>
+    <t>Different Types of Operating System | Operating System - M01 P04</t>
+  </si>
+  <si>
+    <t>https://programmingport.hashnode.dev/different-types-of-operating-system-or-operating-system-m01-p04</t>
+  </si>
+  <si>
+    <t>https://dev.to/rahulmishra05/different-types-of-operating-system-operating-system-m01-p04-2ga2</t>
+  </si>
+  <si>
+    <t>Process State in Operating System | Operating System - M01 P05</t>
+  </si>
+  <si>
+    <t>https://programmingport.hashnode.dev/process-state-in-operating-system-or-operating-system-m01-p05</t>
+  </si>
+  <si>
+    <t>https://dev.to/rahulmishra05/process-state-in-operating-system-operating-system-m01-p05-47jn</t>
+  </si>
+  <si>
+    <t>Important Linux Commands | Operating System - M01 P06</t>
+  </si>
+  <si>
+    <t>https://programmingport.hashnode.dev/important-linux-commands-or-operating-system-m01-p06</t>
+  </si>
+  <si>
+    <t>https://dev.to/rahulmishra05/important-linux-commands-operating-system-m01-p06-gh7</t>
   </si>
 </sst>
 </file>
@@ -334,8 +361,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B10:F20" totalsRowShown="0">
-  <autoFilter ref="B10:F20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B10:F23" totalsRowShown="0">
+  <autoFilter ref="B10:F23">
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="5">
@@ -634,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B10:F20"/>
+  <dimension ref="B10:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -834,6 +861,57 @@
       </c>
       <c r="F20" s="5" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="3">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="4">
+        <v>44142</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="3">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="4">
+        <v>44146</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="3">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44148</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Log of all Blogs.xlsx
+++ b/Log of all Blogs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>S.No</t>
   </si>
@@ -148,6 +148,87 @@
   </si>
   <si>
     <t>https://dev.to/rahulmishra05/important-linux-commands-operating-system-m01-p06-gh7</t>
+  </si>
+  <si>
+    <t>System Call in Operating System | Operating System - M01 P07</t>
+  </si>
+  <si>
+    <t>https://programmingport.hashnode.dev/system-call-in-operating-system-or-operating-system-m01-p07</t>
+  </si>
+  <si>
+    <t>https://dev.to/rahulmishra05/system-call-in-operating-system-operating-system-m01-p07-1o88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fork System Call | Operating System - M01 P08 </t>
+  </si>
+  <si>
+    <t>https://programmingport.hashnode.dev/fork-system-call-or-operating-system-m01-p08</t>
+  </si>
+  <si>
+    <t>https://dev.to/rahulmishra05/fork-system-call-operating-system-m01-p08-27hp</t>
+  </si>
+  <si>
+    <t>Question on Fork System Call | Operating System - M01 P09</t>
+  </si>
+  <si>
+    <t>https://programmingport.hashnode.dev/question-on-fork-system-call-or-operating-system-m01-p09</t>
+  </si>
+  <si>
+    <t>https://dev.to/rahulmishra05/question-on-fork-system-call-operating-system-m01-p09-4fkc</t>
+  </si>
+  <si>
+    <t>User Mode and Kernel Mode | Operating System - M01 P10</t>
+  </si>
+  <si>
+    <t>https://programmingport.hashnode.dev/user-mode-and-kernel-mode-or-operating-system-m01-p10</t>
+  </si>
+  <si>
+    <t>https://dev.to/rahulmishra05/user-mode-and-kernel-mode-2bm7</t>
+  </si>
+  <si>
+    <t>Process v/s Threads | Operating System - M01 P11</t>
+  </si>
+  <si>
+    <t>https://programmingport.hashnode.dev/process-vs-thread-or-operating-system-m01-p11</t>
+  </si>
+  <si>
+    <t>https://dev.to/rahulmishra05/process-v-s-threads-operating-system-m01-p11-35od</t>
+  </si>
+  <si>
+    <t>User Level v/s Kernel Level | Operating System - M01 P12</t>
+  </si>
+  <si>
+    <t>https://programmingport.hashnode.dev/user-level-vs-kernel-level-threads-or-operating-system-m01-p12</t>
+  </si>
+  <si>
+    <t>https://dev.to/rahulmishra05/user-level-v-s-kernel-level-threads-operating-system-m01-p12-4eb7</t>
+  </si>
+  <si>
+    <t>Process Scheduling Algorithms | Operating System - M02 P01</t>
+  </si>
+  <si>
+    <t>https://programmingport.hashnode.dev/process-scheduling-algorithms-or-operating-system-m02-p01</t>
+  </si>
+  <si>
+    <t>https://dev.to/rahulmishra05/process-scheduling-algorithms-operating-system-m02-p01-502l</t>
+  </si>
+  <si>
+    <t>CPU Scheduling | Operating System - M02 P02</t>
+  </si>
+  <si>
+    <t>https://programmingport.hashnode.dev/cpu-scheduling-or-operating-system-m02-p02</t>
+  </si>
+  <si>
+    <t>https://dev.to/rahulmishra05/cpu-scheduling-operating-system-m02-p02-2e4d</t>
+  </si>
+  <si>
+    <t>First Come First Serve (FCFS) | Operating System - M02 P03</t>
+  </si>
+  <si>
+    <t>https://programmingport.hashnode.dev/first-come-first-serve-fcfs-or-operating-system-m02-p03</t>
+  </si>
+  <si>
+    <t>https://dev.to/rahulmishra05/first-come-first-serve-fcfs-operating-system-m02-p03-46ak</t>
   </si>
 </sst>
 </file>
@@ -361,8 +442,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B10:F23" totalsRowShown="0">
-  <autoFilter ref="B10:F23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B10:F32" totalsRowShown="0">
+  <autoFilter ref="B10:F32">
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="5">
@@ -661,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B10:F23"/>
+  <dimension ref="B10:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -912,6 +993,159 @@
       </c>
       <c r="F23" s="5" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="3">
+        <v>14</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="4">
+        <v>44150</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="3">
+        <v>15</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="4">
+        <v>44150</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="3">
+        <v>16</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="4">
+        <v>44151</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="3">
+        <v>17</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="4">
+        <v>44151</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="3">
+        <v>18</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="4">
+        <v>44151</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="3">
+        <v>19</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="4">
+        <v>44151</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="3">
+        <v>20</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="4">
+        <v>44152</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="3">
+        <v>21</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="4">
+        <v>44153</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="3">
+        <v>22</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="4">
+        <v>44154</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Log of all Blogs.xlsx
+++ b/Log of all Blogs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>S.No</t>
   </si>
@@ -229,6 +229,15 @@
   </si>
   <si>
     <t>https://dev.to/rahulmishra05/first-come-first-serve-fcfs-operating-system-m02-p03-46ak</t>
+  </si>
+  <si>
+    <t>Shortest Job First (SJF) | Operating System - M02 P04</t>
+  </si>
+  <si>
+    <t>https://programmingport.hashnode.dev/shortest-job-first-sjf-or-operating-system-m02-p04</t>
+  </si>
+  <si>
+    <t>https://dev.to/rahulmishra05/shortest-job-first-sjf-operating-system-m02-p04-agg</t>
   </si>
 </sst>
 </file>
@@ -442,8 +451,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B10:F32" totalsRowShown="0">
-  <autoFilter ref="B10:F32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B10:F33" totalsRowShown="0">
+  <autoFilter ref="B10:F33">
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="5">
@@ -742,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B10:F32"/>
+  <dimension ref="B10:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1146,6 +1155,23 @@
       </c>
       <c r="F32" s="5" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="3">
+        <v>23</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="4">
+        <v>44155</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
